--- a/profs/xlsx/Расписание Бережной Дмитрий Васильевич.xlsx
+++ b/profs/xlsx/Расписание Бережной Дмитрий Васильевич.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="0" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" state="visible" r:id="rId2"/>
@@ -317,8 +317,8 @@
   </sheetPr>
   <dimension ref="A2:H20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
